--- a/2017-12-27-统计学期末实验报告-大三上/第三章(一共分为四个sheet表格-一道题一个).xlsx
+++ b/2017-12-27-统计学期末实验报告-大三上/第三章(一共分为四个sheet表格-一道题一个).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\吴育华\Desktop\信管1502-何睿-0121503490220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Accessory\2017-12-27-统计学期末实验报告-大三上\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C0A55779-8B5F-414A-B584-43BF63D63F03}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T4" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>计划成本降低</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +211,6 @@
   </si>
   <si>
     <t>第三章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/*——————————*/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,22 +221,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,16 +271,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,20 +562,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -586,7 +583,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -594,16 +591,16 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>(1-B2)/(1-B1)</f>
         <v>1.0222222222222221</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
@@ -615,29 +612,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="34.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
@@ -647,15 +644,15 @@
       <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <f>B5/B4</f>
         <v>0.22406262875978575</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -667,13 +664,13 @@
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>B6/B4</f>
         <v>0.37909627798379342</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -687,13 +684,13 @@
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>B7/B4</f>
         <v>0.39684109325642081</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -711,18 +708,18 @@
       <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>C5/C4</f>
         <v>0.19516527996402069</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -738,18 +735,18 @@
       <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>C6/C4</f>
         <v>0.39289408590060715</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -765,18 +762,18 @@
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>C7/C4</f>
         <v>0.41194063413537219</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -798,14 +795,14 @@
         <f>B5/GCD(B5,B6,B7)&amp;":"&amp;B6/GCD(B5,B6,B7)&amp;":"&amp;B7/GCD(B5,B6,B7)</f>
         <v>8157:13801:14447</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -819,14 +816,14 @@
         <f>C5/GCD(C5,C6,C7)&amp;":"&amp;C6/GCD(C5,C6,C7)&amp;":"&amp;C7/GCD(C5,C6,C7)</f>
         <v>8679:17472:18319</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -842,76 +839,62 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f>C4/B4</f>
         <v>1.2215355033649224</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f>C5/B5</f>
         <v>1.0639941154836337</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f>C6/B6</f>
         <v>1.2659952177378451</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f>C7/B7</f>
         <v>1.2680141205786668</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f>B10-1</f>
         <v>0.22153550336492245</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" ref="C11:E11" si="0">C10-1</f>
         <v>6.3994115483633651E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>0.26599521773784507</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>0.2680141205786668</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I11" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="I1:I11"/>
-    <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -920,63 +903,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>0.95740000000000003</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>0.92220000000000002</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>0.96299999999999997</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -984,7 +967,7 @@
         <f>(B2*B3*B4)^(1/3)</f>
         <v>0.9473597796373765</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -996,39 +979,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1040,7 +1023,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1064,7 +1047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1076,7 +1059,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1088,7 +1071,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1100,7 +1083,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1112,7 +1095,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1124,7 +1107,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1136,7 +1119,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1148,7 +1131,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1160,7 +1143,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1172,7 +1155,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1181,7 +1164,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -1191,7 +1174,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -1201,7 +1184,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
